--- a/branches/add-narrative/CodeSystem-cs-hiv-reasonvltest.xlsx
+++ b/branches/add-narrative/CodeSystem-cs-hiv-reasonvltest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T18:50:07+00:00</t>
+    <t>2022-02-25T20:09:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
